--- a/Code/Results/Cases/Case_1_215/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_215/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.460188488232737</v>
+        <v>5.693535480230485</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.30906796273039</v>
+        <v>8.964373503298315</v>
       </c>
       <c r="E2">
-        <v>8.817417641589694</v>
+        <v>13.60319223818741</v>
       </c>
       <c r="F2">
-        <v>23.04198443272344</v>
+        <v>33.86260390055643</v>
       </c>
       <c r="G2">
-        <v>2.097159444110634</v>
+        <v>3.662661072502026</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.91021368081062</v>
+        <v>21.50744172468364</v>
       </c>
       <c r="J2">
-        <v>5.89411649009871</v>
+        <v>10.1476926252566</v>
       </c>
       <c r="K2">
-        <v>15.66399958724154</v>
+        <v>11.4962342157431</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.10775012742627</v>
+        <v>15.78047382490055</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.4953275189457</v>
+        <v>25.61809616040857</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.052356354832765</v>
+        <v>5.551646108867483</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.094488770335539</v>
+        <v>8.941986685789756</v>
       </c>
       <c r="E3">
-        <v>8.676743088730309</v>
+        <v>13.6145532777809</v>
       </c>
       <c r="F3">
-        <v>22.77882047924677</v>
+        <v>33.94177352349425</v>
       </c>
       <c r="G3">
-        <v>2.102479622198146</v>
+        <v>3.664681031797967</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.27250619051338</v>
+        <v>21.62941994279307</v>
       </c>
       <c r="J3">
-        <v>5.92700457258232</v>
+        <v>10.17346321834326</v>
       </c>
       <c r="K3">
-        <v>14.72254845993445</v>
+        <v>11.15744222379996</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.43222149750244</v>
+        <v>15.65253548411965</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.47845880731901</v>
+        <v>25.70657796104332</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.789017502785182</v>
+        <v>5.463329917961605</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.961279922350782</v>
+        <v>8.929483008116652</v>
       </c>
       <c r="E4">
-        <v>8.594226242606005</v>
+        <v>13.62379522648399</v>
       </c>
       <c r="F4">
-        <v>22.63778935714037</v>
+        <v>33.99867488474119</v>
       </c>
       <c r="G4">
-        <v>2.105847718828265</v>
+        <v>3.665987382031759</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.501054521934</v>
+        <v>21.70809870867007</v>
       </c>
       <c r="J4">
-        <v>5.94977691897842</v>
+        <v>10.19047468736195</v>
       </c>
       <c r="K4">
-        <v>14.11318759033348</v>
+        <v>10.9450671579013</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.00211350188842</v>
+        <v>15.57556599518092</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.48398733630517</v>
+        <v>25.76666578012498</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.678498101148871</v>
+        <v>5.427091471654792</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.906708000202151</v>
+        <v>8.924703425089596</v>
       </c>
       <c r="E5">
-        <v>8.561588895463403</v>
+        <v>13.62813165509174</v>
       </c>
       <c r="F5">
-        <v>22.58538582810289</v>
+        <v>34.02394237503192</v>
       </c>
       <c r="G5">
-        <v>2.107246372890728</v>
+        <v>3.666536400916627</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.59575855971663</v>
+        <v>21.74111514158511</v>
       </c>
       <c r="J5">
-        <v>5.959690022808618</v>
+        <v>10.19770611806712</v>
       </c>
       <c r="K5">
-        <v>13.85703924019075</v>
+        <v>10.85755086863554</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.82317246316742</v>
+        <v>15.54462533148404</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.49007790718802</v>
+        <v>25.7925970247012</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.659954287376446</v>
+        <v>5.421060636122607</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.897631367404994</v>
+        <v>8.923928947341144</v>
       </c>
       <c r="E6">
-        <v>8.556229721434114</v>
+        <v>13.62888616672574</v>
       </c>
       <c r="F6">
-        <v>22.57698711509163</v>
+        <v>34.02826347408138</v>
       </c>
       <c r="G6">
-        <v>2.107480213639281</v>
+        <v>3.666628573487996</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.61157983901203</v>
+        <v>21.74665520772959</v>
       </c>
       <c r="J6">
-        <v>5.961373894627562</v>
+        <v>10.19892496743933</v>
       </c>
       <c r="K6">
-        <v>13.81403482340779</v>
+        <v>10.84296394663816</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.79324401384256</v>
+        <v>15.5395140865019</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.49131639470251</v>
+        <v>25.79699006114219</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.787539916261186</v>
+        <v>5.462842131031601</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.960545005685022</v>
+        <v>8.929417266041202</v>
       </c>
       <c r="E7">
-        <v>8.593782056606047</v>
+        <v>13.62385139969849</v>
       </c>
       <c r="F7">
-        <v>22.6370622491666</v>
+        <v>33.99900723735692</v>
       </c>
       <c r="G7">
-        <v>2.10586647499169</v>
+        <v>3.66599471872454</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.50232533657622</v>
+        <v>21.70854011264725</v>
       </c>
       <c r="J7">
-        <v>5.949908066523256</v>
+        <v>10.19057100140353</v>
       </c>
       <c r="K7">
-        <v>14.1097647110394</v>
+        <v>10.94389064747662</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.99971482198026</v>
+        <v>15.57514696328182</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.48405414638833</v>
+        <v>25.76700965184025</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.322274283582704</v>
+        <v>5.644890386688367</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.235428097205955</v>
+        <v>8.956398924043949</v>
       </c>
       <c r="E8">
-        <v>8.768124314386137</v>
+        <v>13.60663945100803</v>
       </c>
       <c r="F8">
-        <v>22.94692412929189</v>
+        <v>33.88817789992537</v>
       </c>
       <c r="G8">
-        <v>2.098973153039736</v>
+        <v>3.663343869709307</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.03388780527903</v>
+        <v>21.54871619015558</v>
       </c>
       <c r="J8">
-        <v>5.904911622310065</v>
+        <v>10.15633191002043</v>
       </c>
       <c r="K8">
-        <v>15.34590477217168</v>
+        <v>11.38039403259184</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.87811102140507</v>
+        <v>15.73604774257071</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.486120377026</v>
+        <v>25.64740729933164</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.266908899043376</v>
+        <v>5.990265796133508</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.759835458784667</v>
+        <v>9.019001674579611</v>
       </c>
       <c r="E9">
-        <v>9.139705136026572</v>
+        <v>13.59084604709929</v>
       </c>
       <c r="F9">
-        <v>23.72136777862677</v>
+        <v>33.73683387258228</v>
       </c>
       <c r="G9">
-        <v>2.086231580855233</v>
+        <v>3.658667541130416</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.16200868308612</v>
+        <v>21.26519604560319</v>
       </c>
       <c r="J9">
-        <v>5.837859366248349</v>
+        <v>10.09860233919464</v>
       </c>
       <c r="K9">
-        <v>17.5206215248565</v>
+        <v>12.19684904986466</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.65844021036596</v>
+        <v>16.0629613896243</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.62308364211248</v>
+        <v>25.45871281702875</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.896306735378088</v>
+        <v>6.23428014887828</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.132574546331933</v>
+        <v>9.070673327476852</v>
       </c>
       <c r="E10">
-        <v>9.429519240653148</v>
+        <v>13.5901538918395</v>
       </c>
       <c r="F10">
-        <v>24.3961614958317</v>
+        <v>33.66612513160338</v>
       </c>
       <c r="G10">
-        <v>2.077300672290806</v>
+        <v>3.655546704282436</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.54746963759531</v>
+        <v>21.07493800258813</v>
       </c>
       <c r="J10">
-        <v>5.802564470491149</v>
+        <v>10.0619066413668</v>
       </c>
       <c r="K10">
-        <v>18.9662142140876</v>
+        <v>12.76659484336105</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.92273237272541</v>
+        <v>16.30846070454198</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.81382838347998</v>
+        <v>25.34822012423446</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.16848664157763</v>
+        <v>6.342677664455702</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.298799326724328</v>
+        <v>9.095359049608382</v>
       </c>
       <c r="E11">
-        <v>9.564734301740767</v>
+        <v>13.59219709495648</v>
       </c>
       <c r="F11">
-        <v>24.72674600977802</v>
+        <v>33.64279084373427</v>
       </c>
       <c r="G11">
-        <v>2.073321094987726</v>
+        <v>3.654194611453383</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.27298019426238</v>
+        <v>20.99226446931828</v>
       </c>
       <c r="J11">
-        <v>5.789787198466054</v>
+        <v>10.0464502131401</v>
       </c>
       <c r="K11">
-        <v>19.59102594242492</v>
+        <v>13.01816204300965</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.46883666630189</v>
+        <v>16.42094642998227</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.92201551472758</v>
+        <v>25.30410345382186</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.269518234576065</v>
+        <v>6.383313128357155</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.361222237492039</v>
+        <v>9.10487165910447</v>
       </c>
       <c r="E12">
-        <v>9.616399416531962</v>
+        <v>13.59330862057985</v>
       </c>
       <c r="F12">
-        <v>24.85536248820705</v>
+        <v>33.63522709144529</v>
       </c>
       <c r="G12">
-        <v>2.071825197963833</v>
+        <v>3.653692274668997</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12.16971748690392</v>
+        <v>20.96151262747671</v>
       </c>
       <c r="J12">
-        <v>5.785442012694218</v>
+        <v>10.04077477437624</v>
       </c>
       <c r="K12">
-        <v>19.82293881044924</v>
+        <v>13.11225029214109</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.67150209325887</v>
+        <v>16.46362802382045</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.96620588313505</v>
+        <v>25.28828452976761</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.247849890069054</v>
+        <v>6.374580457275311</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.347802212366067</v>
+        <v>9.102815707169311</v>
       </c>
       <c r="E13">
-        <v>9.605252215900316</v>
+        <v>13.59305423175556</v>
       </c>
       <c r="F13">
-        <v>24.82750952811285</v>
+        <v>33.63679945653659</v>
       </c>
       <c r="G13">
-        <v>2.072146887787184</v>
+        <v>3.653800032506749</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.19192749034961</v>
+        <v>20.96811095023659</v>
       </c>
       <c r="J13">
-        <v>5.786355526461691</v>
+        <v>10.04198918792513</v>
       </c>
       <c r="K13">
-        <v>19.77320029905168</v>
+        <v>13.0920401400557</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.62803754081473</v>
+        <v>16.45443244987799</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.95654318058911</v>
+        <v>25.2916519152942</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.176839404758617</v>
+        <v>6.346029236177484</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.303945597542919</v>
+        <v>9.096138387126954</v>
       </c>
       <c r="E14">
-        <v>9.568975690017286</v>
+        <v>13.59228177859806</v>
       </c>
       <c r="F14">
-        <v>24.73725841812505</v>
+        <v>33.642143055942</v>
       </c>
       <c r="G14">
-        <v>2.073197809738824</v>
+        <v>3.654153090347936</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.26447135697729</v>
+        <v>20.98972339141335</v>
       </c>
       <c r="J14">
-        <v>5.789419701801479</v>
+        <v>10.04597973393393</v>
       </c>
       <c r="K14">
-        <v>19.6101993643141</v>
+        <v>13.02592671351503</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.48559263615387</v>
+        <v>16.42445632648439</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.92558570915039</v>
+        <v>25.30278422501145</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.133078102963781</v>
+        <v>6.328486030548221</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.27701290757267</v>
+        <v>9.092069627155256</v>
       </c>
       <c r="E15">
-        <v>9.54681477687892</v>
+        <v>13.59185258045707</v>
       </c>
       <c r="F15">
-        <v>24.68242479472117</v>
+        <v>33.64558193580066</v>
       </c>
       <c r="G15">
-        <v>2.073842946144546</v>
+        <v>3.654370606552859</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.30899371273736</v>
+        <v>21.00303381708144</v>
       </c>
       <c r="J15">
-        <v>5.791361507124126</v>
+        <v>10.04844717671733</v>
       </c>
       <c r="K15">
-        <v>19.50974675710765</v>
+        <v>12.98527510434186</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.39780417951721</v>
+        <v>16.40610534585368</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.90704712416384</v>
+        <v>25.30971870423536</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.878234209879096</v>
+        <v>6.227140392554345</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.121640396468963</v>
+        <v>9.069083377788377</v>
       </c>
       <c r="E16">
-        <v>9.420748533273052</v>
+        <v>13.59006770884952</v>
       </c>
       <c r="F16">
-        <v>24.37503542544964</v>
+        <v>33.6678280213446</v>
       </c>
       <c r="G16">
-        <v>2.077562346712471</v>
+        <v>3.655636422717038</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.56550607864576</v>
+        <v>21.08041868887102</v>
       </c>
       <c r="J16">
-        <v>5.803467307886749</v>
+        <v>10.06294161796625</v>
       </c>
       <c r="K16">
-        <v>18.92472341417273</v>
+        <v>12.74999410859434</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.8864625126788</v>
+        <v>16.30112313953028</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.80720138124817</v>
+        <v>25.35122722053592</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.718270556793671</v>
+        <v>6.164272935548452</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.025437108708861</v>
+        <v>9.055280781751215</v>
       </c>
       <c r="E17">
-        <v>9.34425880024528</v>
+        <v>13.58957585256209</v>
       </c>
       <c r="F17">
-        <v>24.19253829490355</v>
+        <v>33.68373920305311</v>
       </c>
       <c r="G17">
-        <v>2.079864769465105</v>
+        <v>3.656430237358117</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.72413254334545</v>
+        <v>21.12888269835488</v>
       </c>
       <c r="J17">
-        <v>5.811748706343501</v>
+        <v>10.07215003951903</v>
       </c>
       <c r="K17">
-        <v>18.55744674039419</v>
+        <v>12.60364734314463</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.56536430665268</v>
+        <v>16.23690501601984</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.75153788878355</v>
+        <v>25.37826805325893</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.624933045950293</v>
+        <v>6.127870006803815</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.969791645528856</v>
+        <v>9.047453277317901</v>
       </c>
       <c r="E18">
-        <v>9.30058315057954</v>
+        <v>13.58951499009707</v>
       </c>
       <c r="F18">
-        <v>24.08979220521375</v>
+        <v>33.69372204727787</v>
       </c>
       <c r="G18">
-        <v>2.081196943054831</v>
+        <v>3.656893183430594</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.81585030522665</v>
+        <v>21.15712287220011</v>
       </c>
       <c r="J18">
-        <v>5.816819163477457</v>
+        <v>10.07756289222843</v>
       </c>
       <c r="K18">
-        <v>18.34310989546979</v>
+        <v>12.5187602202982</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.37794198905241</v>
+        <v>16.20004621082096</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.72152938502229</v>
+        <v>25.39439963102439</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.593102234848288</v>
+        <v>6.115504023851939</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.950898907577785</v>
+        <v>9.0448222988311</v>
       </c>
       <c r="E19">
-        <v>9.285850891294618</v>
+        <v>13.58953255477932</v>
       </c>
       <c r="F19">
-        <v>24.05538449100125</v>
+        <v>33.69724473171269</v>
       </c>
       <c r="G19">
-        <v>2.081649373338578</v>
+        <v>3.657051023665107</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.84698823177821</v>
+        <v>21.16674726832602</v>
       </c>
       <c r="J19">
-        <v>5.818588051606945</v>
+        <v>10.07941559272862</v>
       </c>
       <c r="K19">
-        <v>18.27000792095822</v>
+        <v>12.48989913120707</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.31401305609316</v>
+        <v>16.18758073327399</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.7117093949293</v>
+        <v>25.3999607487018</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.735436723228519</v>
+        <v>6.170990739631479</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.035710724705497</v>
+        <v>9.056738599624165</v>
       </c>
       <c r="E20">
-        <v>9.352368399553123</v>
+        <v>13.58960523987002</v>
       </c>
       <c r="F20">
-        <v>24.21173524002969</v>
+        <v>33.68195938922694</v>
       </c>
       <c r="G20">
-        <v>2.079618863122051</v>
+        <v>3.656345076042767</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.70719714633491</v>
+        <v>21.12368586829589</v>
       </c>
       <c r="J20">
-        <v>5.81083518726563</v>
+        <v>10.0711577409209</v>
       </c>
       <c r="K20">
-        <v>18.59686350735851</v>
+        <v>12.61930053630758</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.59982854547602</v>
+        <v>16.24373331685013</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.75725452458465</v>
+        <v>25.3753296241108</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.19775220122861</v>
+        <v>6.354426896146251</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.316841846812089</v>
+        <v>9.098095250028255</v>
       </c>
       <c r="E21">
-        <v>9.579618623740826</v>
+        <v>13.5924995098473</v>
       </c>
       <c r="F21">
-        <v>24.76367398426045</v>
+        <v>33.64053896127029</v>
       </c>
       <c r="G21">
-        <v>2.072888834959623</v>
+        <v>3.654049126604411</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12.24314539428404</v>
+        <v>20.9833602554478</v>
       </c>
       <c r="J21">
-        <v>5.788506111496551</v>
+        <v>10.04480279648633</v>
       </c>
       <c r="K21">
-        <v>19.65820371942973</v>
+        <v>13.04537830986529</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.52754395308209</v>
+        <v>16.43325895627638</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.9345901118277</v>
+        <v>25.29949029566718</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.488029841194095</v>
+        <v>6.471894480887584</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.497514742382857</v>
+        <v>9.126081520957396</v>
       </c>
       <c r="E22">
-        <v>9.730823565664092</v>
+        <v>13.59635937290542</v>
       </c>
       <c r="F22">
-        <v>25.14441047482784</v>
+        <v>33.62088572191448</v>
       </c>
       <c r="G22">
-        <v>2.068554521298501</v>
+        <v>3.652604941317956</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.94380280630341</v>
+        <v>20.89488218823331</v>
       </c>
       <c r="J22">
-        <v>5.776799041854852</v>
+        <v>10.0286132459287</v>
       </c>
       <c r="K22">
-        <v>20.32453313712621</v>
+        <v>13.31696580242797</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.10979544569384</v>
+        <v>16.55761040309911</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.06933274999179</v>
+        <v>25.25509697042627</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.334189764275475</v>
+        <v>6.409432722706453</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.401378925569047</v>
+        <v>9.111058838375282</v>
       </c>
       <c r="E23">
-        <v>9.649884433369238</v>
+        <v>13.59411966096681</v>
       </c>
       <c r="F23">
-        <v>24.93936300239028</v>
+        <v>33.63069568725893</v>
       </c>
       <c r="G23">
-        <v>2.07086226054163</v>
+        <v>3.653370589929462</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12.10322352288468</v>
+        <v>20.94180961537741</v>
       </c>
       <c r="J23">
-        <v>5.782775701107703</v>
+        <v>10.03715929988948</v>
       </c>
       <c r="K23">
-        <v>19.97138940880572</v>
+        <v>13.17266820036942</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.80122369088166</v>
+        <v>16.49120726808377</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.99564834405979</v>
+        <v>25.27831627538746</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.727680173344519</v>
+        <v>6.167954426093065</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.031067068972244</v>
+        <v>9.056079184037525</v>
       </c>
       <c r="E24">
-        <v>9.348701115593661</v>
+        <v>13.58959126254697</v>
       </c>
       <c r="F24">
-        <v>24.20304953250807</v>
+        <v>33.68276144134354</v>
       </c>
       <c r="G24">
-        <v>2.079730010901325</v>
+        <v>3.656383557000105</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.71485201199438</v>
+        <v>21.12603417886307</v>
       </c>
       <c r="J24">
-        <v>5.8112472272579</v>
+        <v>10.07160598901795</v>
       </c>
       <c r="K24">
-        <v>18.57905310819955</v>
+        <v>12.61222605889117</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.58425604578127</v>
+        <v>16.24064604956223</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.75466383610572</v>
+        <v>25.37665626452248</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.022648888236137</v>
+        <v>5.89836224862373</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.619937664810053</v>
+        <v>9.001051313024126</v>
       </c>
       <c r="E25">
-        <v>9.036133756397401</v>
+        <v>13.5931990992034</v>
       </c>
       <c r="F25">
-        <v>23.49352522875033</v>
+        <v>33.77068308598585</v>
       </c>
       <c r="G25">
-        <v>2.089599692060561</v>
+        <v>3.659877078276183</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.39311881425706</v>
+        <v>21.33871408039054</v>
       </c>
       <c r="J25">
-        <v>5.853625477979993</v>
+        <v>10.11321408120795</v>
       </c>
       <c r="K25">
-        <v>16.95906378205856</v>
+        <v>11.98086381089512</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.16686198963151</v>
+        <v>15.97346983561924</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.57084639193116</v>
+        <v>25.50483121501016</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_215/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_215/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.693535480230485</v>
+        <v>7.460188488232824</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.964373503298315</v>
+        <v>6.309067962730326</v>
       </c>
       <c r="E2">
-        <v>13.60319223818741</v>
+        <v>8.81741764158965</v>
       </c>
       <c r="F2">
-        <v>33.86260390055643</v>
+        <v>23.04198443272314</v>
       </c>
       <c r="G2">
-        <v>3.662661072502026</v>
+        <v>2.097159444110501</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.50744172468364</v>
+        <v>13.91021368081052</v>
       </c>
       <c r="J2">
-        <v>10.1476926252566</v>
+        <v>5.89411649009877</v>
       </c>
       <c r="K2">
-        <v>11.4962342157431</v>
+        <v>15.66399958724162</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.78047382490055</v>
+        <v>13.10775012742623</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.61809616040857</v>
+        <v>16.4953275189455</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.551646108867483</v>
+        <v>7.052356354832733</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.941986685789756</v>
+        <v>6.09448877033551</v>
       </c>
       <c r="E3">
-        <v>13.6145532777809</v>
+        <v>8.676743088730264</v>
       </c>
       <c r="F3">
-        <v>33.94177352349425</v>
+        <v>22.77882047924668</v>
       </c>
       <c r="G3">
-        <v>3.664681031797967</v>
+        <v>2.102479622197878</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.62941994279307</v>
+        <v>14.27250619051339</v>
       </c>
       <c r="J3">
-        <v>10.17346321834326</v>
+        <v>5.927004572582358</v>
       </c>
       <c r="K3">
-        <v>11.15744222379996</v>
+        <v>14.72254845993452</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.65253548411965</v>
+        <v>12.4322214975024</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.70657796104332</v>
+        <v>16.47845880731896</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.463329917961605</v>
+        <v>6.789017502785153</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.929483008116652</v>
+        <v>5.961279922350754</v>
       </c>
       <c r="E4">
-        <v>13.62379522648399</v>
+        <v>8.594226242605957</v>
       </c>
       <c r="F4">
-        <v>33.99867488474119</v>
+        <v>22.6377893571403</v>
       </c>
       <c r="G4">
-        <v>3.665987382031759</v>
+        <v>2.105847718828266</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>21.70809870867007</v>
+        <v>14.501054521934</v>
       </c>
       <c r="J4">
-        <v>10.19047468736195</v>
+        <v>5.949776918978382</v>
       </c>
       <c r="K4">
-        <v>10.9450671579013</v>
+        <v>14.11318759033348</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.57556599518092</v>
+        <v>12.00211350188841</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.76666578012498</v>
+        <v>16.48398733630514</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.427091471654792</v>
+        <v>6.678498101148753</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.924703425089596</v>
+        <v>5.906708000202141</v>
       </c>
       <c r="E5">
-        <v>13.62813165509174</v>
+        <v>8.561588895463409</v>
       </c>
       <c r="F5">
-        <v>34.02394237503192</v>
+        <v>22.58538582810266</v>
       </c>
       <c r="G5">
-        <v>3.666536400916627</v>
+        <v>2.107246372890592</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.74111514158511</v>
+        <v>14.59575855971666</v>
       </c>
       <c r="J5">
-        <v>10.19770611806712</v>
+        <v>5.959690022808646</v>
       </c>
       <c r="K5">
-        <v>10.85755086863554</v>
+        <v>13.8570392401908</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.54462533148404</v>
+        <v>11.8231724631674</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.7925970247012</v>
+        <v>16.49007790718792</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.421060636122607</v>
+        <v>6.659954287376403</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.923928947341144</v>
+        <v>5.8976313674049</v>
       </c>
       <c r="E6">
-        <v>13.62888616672574</v>
+        <v>8.556229721434013</v>
       </c>
       <c r="F6">
-        <v>34.02826347408138</v>
+        <v>22.57698711509132</v>
       </c>
       <c r="G6">
-        <v>3.666628573487996</v>
+        <v>2.107480213639013</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.74665520772959</v>
+        <v>14.61157983901189</v>
       </c>
       <c r="J6">
-        <v>10.19892496743933</v>
+        <v>5.961373894627593</v>
       </c>
       <c r="K6">
-        <v>10.84296394663816</v>
+        <v>13.81403482340785</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.5395140865019</v>
+        <v>11.79324401384252</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.79699006114219</v>
+        <v>16.49131639470228</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.462842131031601</v>
+        <v>6.787539916261179</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.929417266041202</v>
+        <v>5.960545005685115</v>
       </c>
       <c r="E7">
-        <v>13.62385139969849</v>
+        <v>8.593782056606106</v>
       </c>
       <c r="F7">
-        <v>33.99900723735692</v>
+        <v>22.63706224916665</v>
       </c>
       <c r="G7">
-        <v>3.66599471872454</v>
+        <v>2.105866474991692</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>21.70854011264725</v>
+        <v>14.50232533657622</v>
       </c>
       <c r="J7">
-        <v>10.19057100140353</v>
+        <v>5.949908066523226</v>
       </c>
       <c r="K7">
-        <v>10.94389064747662</v>
+        <v>14.10976471103941</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.57514696328182</v>
+        <v>11.99971482198029</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.76700965184025</v>
+        <v>16.48405414638833</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.644890386688367</v>
+        <v>7.322274283582693</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.956398924043949</v>
+        <v>6.235428097205951</v>
       </c>
       <c r="E8">
-        <v>13.60663945100803</v>
+        <v>8.768124314386091</v>
       </c>
       <c r="F8">
-        <v>33.88817789992537</v>
+        <v>22.94692412929165</v>
       </c>
       <c r="G8">
-        <v>3.663343869709307</v>
+        <v>2.098973153039469</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.54871619015558</v>
+        <v>14.03388780527892</v>
       </c>
       <c r="J8">
-        <v>10.15633191002043</v>
+        <v>5.904911622309962</v>
       </c>
       <c r="K8">
-        <v>11.38039403259184</v>
+        <v>15.3459047721717</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.73604774257071</v>
+        <v>12.87811102140505</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.64740729933164</v>
+        <v>16.4861203770258</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.990265796133508</v>
+        <v>8.266908899043417</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.019001674579611</v>
+        <v>6.759835458784733</v>
       </c>
       <c r="E9">
-        <v>13.59084604709929</v>
+        <v>9.139705136026651</v>
       </c>
       <c r="F9">
-        <v>33.73683387258228</v>
+        <v>23.7213677786267</v>
       </c>
       <c r="G9">
-        <v>3.658667541130416</v>
+        <v>2.086231580855367</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.26519604560319</v>
+        <v>13.16200868308609</v>
       </c>
       <c r="J9">
-        <v>10.09860233919464</v>
+        <v>5.837859366248371</v>
       </c>
       <c r="K9">
-        <v>12.19684904986466</v>
+        <v>17.52062152485659</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.0629613896243</v>
+        <v>14.65844021036598</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.45871281702875</v>
+        <v>16.62308364211237</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.23428014887828</v>
+        <v>8.896306735378015</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.070673327476852</v>
+        <v>7.132574546331896</v>
       </c>
       <c r="E10">
-        <v>13.5901538918395</v>
+        <v>9.429519240653148</v>
       </c>
       <c r="F10">
-        <v>33.66612513160338</v>
+        <v>24.39616149583169</v>
       </c>
       <c r="G10">
-        <v>3.655546704282436</v>
+        <v>2.077300672290807</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.07493800258813</v>
+        <v>12.54746963759538</v>
       </c>
       <c r="J10">
-        <v>10.0619066413668</v>
+        <v>5.802564470491149</v>
       </c>
       <c r="K10">
-        <v>12.76659484336105</v>
+        <v>18.96621421408755</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.30846070454198</v>
+        <v>15.92273237272538</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.34822012423446</v>
+        <v>16.81382838347998</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.342677664455702</v>
+        <v>9.168486641577694</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.095359049608382</v>
+        <v>7.298799326724316</v>
       </c>
       <c r="E11">
-        <v>13.59219709495648</v>
+        <v>9.564734301740788</v>
       </c>
       <c r="F11">
-        <v>33.64279084373427</v>
+        <v>24.72674600977797</v>
       </c>
       <c r="G11">
-        <v>3.654194611453383</v>
+        <v>2.073321094987326</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.99226446931828</v>
+        <v>12.27298019426238</v>
       </c>
       <c r="J11">
-        <v>10.0464502131401</v>
+        <v>5.78978719846608</v>
       </c>
       <c r="K11">
-        <v>13.01816204300965</v>
+        <v>19.59102594242497</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.42094642998227</v>
+        <v>16.46883666630193</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.30410345382186</v>
+        <v>16.92201551472752</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.383313128357155</v>
+        <v>9.269518234576109</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.10487165910447</v>
+        <v>7.361222237492012</v>
       </c>
       <c r="E12">
-        <v>13.59330862057985</v>
+        <v>9.616399416531971</v>
       </c>
       <c r="F12">
-        <v>33.63522709144529</v>
+        <v>24.85536248820696</v>
       </c>
       <c r="G12">
-        <v>3.653692274668997</v>
+        <v>2.071825197963835</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.96151262747671</v>
+        <v>12.16971748690382</v>
       </c>
       <c r="J12">
-        <v>10.04077477437624</v>
+        <v>5.785442012694272</v>
       </c>
       <c r="K12">
-        <v>13.11225029214109</v>
+        <v>19.82293881044927</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.46362802382045</v>
+        <v>16.6715020932589</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.28828452976761</v>
+        <v>16.96620588313499</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.374580457275311</v>
+        <v>9.247849890069052</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.102815707169311</v>
+        <v>7.34780221236606</v>
       </c>
       <c r="E13">
-        <v>13.59305423175556</v>
+        <v>9.605252215900299</v>
       </c>
       <c r="F13">
-        <v>33.63679945653659</v>
+        <v>24.82750952811291</v>
       </c>
       <c r="G13">
-        <v>3.653800032506749</v>
+        <v>2.072146887787051</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.96811095023659</v>
+        <v>12.19192749034974</v>
       </c>
       <c r="J13">
-        <v>10.04198918792513</v>
+        <v>5.786355526461771</v>
       </c>
       <c r="K13">
-        <v>13.0920401400557</v>
+        <v>19.77320029905162</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.45443244987799</v>
+        <v>16.6280375408147</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.2916519152942</v>
+        <v>16.9565431805892</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.346029236177484</v>
+        <v>9.176839404758574</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.096138387126954</v>
+        <v>7.30394559754291</v>
       </c>
       <c r="E14">
-        <v>13.59228177859806</v>
+        <v>9.568975690017309</v>
       </c>
       <c r="F14">
-        <v>33.642143055942</v>
+        <v>24.73725841812488</v>
       </c>
       <c r="G14">
-        <v>3.654153090347936</v>
+        <v>2.073197809738959</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.98972339141335</v>
+        <v>12.26447135697726</v>
       </c>
       <c r="J14">
-        <v>10.04597973393393</v>
+        <v>5.789419701801482</v>
       </c>
       <c r="K14">
-        <v>13.02592671351503</v>
+        <v>19.61019936431419</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.42445632648439</v>
+        <v>16.48559263615391</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.30278422501145</v>
+        <v>16.92558570915023</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.328486030548221</v>
+        <v>9.133078102963763</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.092069627155256</v>
+        <v>7.277012907572692</v>
       </c>
       <c r="E15">
-        <v>13.59185258045707</v>
+        <v>9.546814776878966</v>
       </c>
       <c r="F15">
-        <v>33.64558193580066</v>
+        <v>24.68242479472111</v>
       </c>
       <c r="G15">
-        <v>3.654370606552859</v>
+        <v>2.073842946144545</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.00303381708144</v>
+        <v>12.30899371273739</v>
       </c>
       <c r="J15">
-        <v>10.04844717671733</v>
+        <v>5.791361507124105</v>
       </c>
       <c r="K15">
-        <v>12.98527510434186</v>
+        <v>19.50974675710769</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.40610534585368</v>
+        <v>16.39780417951725</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.30971870423536</v>
+        <v>16.90704712416377</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.227140392554345</v>
+        <v>8.878234209879073</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.069083377788377</v>
+        <v>7.121640396468949</v>
       </c>
       <c r="E16">
-        <v>13.59006770884952</v>
+        <v>9.420748533273018</v>
       </c>
       <c r="F16">
-        <v>33.6678280213446</v>
+        <v>24.37503542544949</v>
       </c>
       <c r="G16">
-        <v>3.655636422717038</v>
+        <v>2.077562346712471</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.08041868887102</v>
+        <v>12.56550607864566</v>
       </c>
       <c r="J16">
-        <v>10.06294161796625</v>
+        <v>5.803467307886714</v>
       </c>
       <c r="K16">
-        <v>12.74999410859434</v>
+        <v>18.92472341417278</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.30112313953028</v>
+        <v>15.88646251267886</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.35122722053592</v>
+        <v>16.80720138124805</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.164272935548452</v>
+        <v>8.718270556793676</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.055280781751215</v>
+        <v>7.025437108708921</v>
       </c>
       <c r="E17">
-        <v>13.58957585256209</v>
+        <v>9.344258800245319</v>
       </c>
       <c r="F17">
-        <v>33.68373920305311</v>
+        <v>24.19253829490345</v>
       </c>
       <c r="G17">
-        <v>3.656430237358117</v>
+        <v>2.079864769465237</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.12888269835488</v>
+        <v>12.72413254334541</v>
       </c>
       <c r="J17">
-        <v>10.07215003951903</v>
+        <v>5.811748706343526</v>
       </c>
       <c r="K17">
-        <v>12.60364734314463</v>
+        <v>18.55744674039425</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.23690501601984</v>
+        <v>15.56536430665271</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.37826805325893</v>
+        <v>16.75153788878347</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.127870006803815</v>
+        <v>8.624933045950241</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.047453277317901</v>
+        <v>6.969791645528894</v>
       </c>
       <c r="E18">
-        <v>13.58951499009707</v>
+        <v>9.300583150579664</v>
       </c>
       <c r="F18">
-        <v>33.69372204727787</v>
+        <v>24.08979220521374</v>
       </c>
       <c r="G18">
-        <v>3.656893183430594</v>
+        <v>2.081196943054965</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.15712287220011</v>
+        <v>12.81585030522672</v>
       </c>
       <c r="J18">
-        <v>10.07756289222843</v>
+        <v>5.816819163477516</v>
       </c>
       <c r="K18">
-        <v>12.5187602202982</v>
+        <v>18.3431098954698</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.20004621082096</v>
+        <v>15.37794198905239</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.39439963102439</v>
+        <v>16.72152938502225</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.115504023851939</v>
+        <v>8.593102234848297</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.0448222988311</v>
+        <v>6.95089890757776</v>
       </c>
       <c r="E19">
-        <v>13.58953255477932</v>
+        <v>9.285850891294627</v>
       </c>
       <c r="F19">
-        <v>33.69724473171269</v>
+        <v>24.05538449100108</v>
       </c>
       <c r="G19">
-        <v>3.657051023665107</v>
+        <v>2.081649373338577</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.16674726832602</v>
+        <v>12.84698823177808</v>
       </c>
       <c r="J19">
-        <v>10.07941559272862</v>
+        <v>5.818588051606974</v>
       </c>
       <c r="K19">
-        <v>12.48989913120707</v>
+        <v>18.27000792095827</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.18758073327399</v>
+        <v>15.3140130560932</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.3999607487018</v>
+        <v>16.71170939492917</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.170990739631479</v>
+        <v>8.735436723228483</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.056738599624165</v>
+        <v>7.035710724705529</v>
       </c>
       <c r="E20">
-        <v>13.58960523987002</v>
+        <v>9.352368399553157</v>
       </c>
       <c r="F20">
-        <v>33.68195938922694</v>
+        <v>24.21173524002966</v>
       </c>
       <c r="G20">
-        <v>3.656345076042767</v>
+        <v>2.079618863122318</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.12368586829589</v>
+        <v>12.70719714633504</v>
       </c>
       <c r="J20">
-        <v>10.0711577409209</v>
+        <v>5.810835187265686</v>
       </c>
       <c r="K20">
-        <v>12.61930053630758</v>
+        <v>18.59686350735853</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.24373331685013</v>
+        <v>15.59982854547604</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.3753296241108</v>
+        <v>16.75725452458463</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.354426896146251</v>
+        <v>9.197752201228617</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.098095250028255</v>
+        <v>7.316841846812084</v>
       </c>
       <c r="E21">
-        <v>13.5924995098473</v>
+        <v>9.579618623740856</v>
       </c>
       <c r="F21">
-        <v>33.64053896127029</v>
+        <v>24.76367398426044</v>
       </c>
       <c r="G21">
-        <v>3.654049126604411</v>
+        <v>2.072888834959624</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.9833602554478</v>
+        <v>12.24314539428407</v>
       </c>
       <c r="J21">
-        <v>10.04480279648633</v>
+        <v>5.788506111496656</v>
       </c>
       <c r="K21">
-        <v>13.04537830986529</v>
+        <v>19.65820371942972</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.43325895627638</v>
+        <v>16.52754395308207</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.29949029566718</v>
+        <v>16.93459011182771</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.471894480887584</v>
+        <v>9.488029841194122</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.126081520957396</v>
+        <v>7.497514742382949</v>
       </c>
       <c r="E22">
-        <v>13.59635937290542</v>
+        <v>9.730823565664153</v>
       </c>
       <c r="F22">
-        <v>33.62088572191448</v>
+        <v>25.14441047482776</v>
       </c>
       <c r="G22">
-        <v>3.652604941317956</v>
+        <v>2.068554521298499</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.89488218823331</v>
+        <v>11.94380280630321</v>
       </c>
       <c r="J22">
-        <v>10.0286132459287</v>
+        <v>5.776799041854823</v>
       </c>
       <c r="K22">
-        <v>13.31696580242797</v>
+        <v>20.32453313712626</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.55761040309911</v>
+        <v>17.10979544569386</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.25509697042627</v>
+        <v>17.06933274999166</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.409432722706453</v>
+        <v>9.33418976427545</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.111058838375282</v>
+        <v>7.401378925569074</v>
       </c>
       <c r="E23">
-        <v>13.59411966096681</v>
+        <v>9.649884433369204</v>
       </c>
       <c r="F23">
-        <v>33.63069568725893</v>
+        <v>24.9393630023903</v>
       </c>
       <c r="G23">
-        <v>3.653370589929462</v>
+        <v>2.070862260541899</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.94180961537741</v>
+        <v>12.10322352288469</v>
       </c>
       <c r="J23">
-        <v>10.03715929988948</v>
+        <v>5.782775701107654</v>
       </c>
       <c r="K23">
-        <v>13.17266820036942</v>
+        <v>19.97138940880575</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.49120726808377</v>
+        <v>16.80122369088168</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.27831627538746</v>
+        <v>16.99564834405977</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.167954426093065</v>
+        <v>8.727680173344563</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.056079184037525</v>
+        <v>7.031067068972257</v>
       </c>
       <c r="E24">
-        <v>13.58959126254697</v>
+        <v>9.348701115593668</v>
       </c>
       <c r="F24">
-        <v>33.68276144134354</v>
+        <v>24.20304953250796</v>
       </c>
       <c r="G24">
-        <v>3.656383557000105</v>
+        <v>2.079730010901324</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.12603417886307</v>
+        <v>12.71485201199424</v>
       </c>
       <c r="J24">
-        <v>10.07160598901795</v>
+        <v>5.811247227257905</v>
       </c>
       <c r="K24">
-        <v>12.61222605889117</v>
+        <v>18.57905310819955</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.24064604956223</v>
+        <v>15.58425604578129</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.37665626452248</v>
+        <v>16.7546638361056</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.89836224862373</v>
+        <v>8.02264888823613</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.001051313024126</v>
+        <v>6.619937664810108</v>
       </c>
       <c r="E25">
-        <v>13.5931990992034</v>
+        <v>9.03613375639736</v>
       </c>
       <c r="F25">
-        <v>33.77068308598585</v>
+        <v>23.49352522875026</v>
       </c>
       <c r="G25">
-        <v>3.659877078276183</v>
+        <v>2.089599692060695</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.33871408039054</v>
+        <v>13.39311881425692</v>
       </c>
       <c r="J25">
-        <v>10.11321408120795</v>
+        <v>5.853625477979943</v>
       </c>
       <c r="K25">
-        <v>11.98086381089512</v>
+        <v>16.95906378205856</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.97346983561924</v>
+        <v>14.1668619896315</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.50483121501016</v>
+        <v>16.57084639193107</v>
       </c>
     </row>
   </sheetData>
